--- a/Macumber_Coursera_Capstone_Table02.xlsx
+++ b/Macumber_Coursera_Capstone_Table02.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I dunno---Andrew\FactoryFloor\Repositories\Coursera_Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57E0B258-2349-4324-A5D6-E324DF56D681}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CC54B4-D26E-4C11-8B6F-91BE4C31284B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stations_VenueCounts_Clustered" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -467,7 +470,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,7 +655,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -674,12 +677,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1035,20 +1057,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="13" width="14.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="2" customWidth="1"/>
+    <col min="9" max="10" width="14.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1099,11 +1127,11 @@
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="15">
         <v>45.418517799999996</v>
       </c>
-      <c r="D2" s="1">
-        <v>-75.705015309999993</v>
+      <c r="D2" s="15">
+        <v>-75.705015306200295</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -1140,10 +1168,10 @@
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="15">
         <v>45.421388999999998</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="15">
         <v>-75.698888999999994</v>
       </c>
       <c r="E3" s="2">
@@ -1176,40 +1204,40 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="15">
+        <v>45.327995000000001</v>
+      </c>
+      <c r="D4" s="15">
+        <v>-75.701520519569499</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1">
-        <v>43.6708116</v>
-      </c>
-      <c r="D4" s="1">
-        <v>-79.386847399999994</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2">
-        <v>13</v>
-      </c>
       <c r="H4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J4" s="2">
         <v>49</v>
       </c>
       <c r="K4" s="2">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="L4" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
@@ -1217,40 +1245,40 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1">
-        <v>43.648522700000001</v>
-      </c>
-      <c r="D5" s="1">
-        <v>-79.377772800000002</v>
+      <c r="C5" s="15">
+        <v>43.6708116</v>
+      </c>
+      <c r="D5" s="15">
+        <v>-79.386847399999994</v>
       </c>
       <c r="E5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>3</v>
+      </c>
+      <c r="J5" s="2">
+        <v>49</v>
+      </c>
+      <c r="K5" s="2">
+        <v>26</v>
+      </c>
+      <c r="L5" s="2">
         <v>4</v>
-      </c>
-      <c r="I5" s="2">
-        <v>4</v>
-      </c>
-      <c r="J5" s="2">
-        <v>45</v>
-      </c>
-      <c r="K5" s="2">
-        <v>20</v>
-      </c>
-      <c r="L5" s="2">
-        <v>8</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
@@ -1258,40 +1286,40 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1">
-        <v>43.650801600000001</v>
-      </c>
-      <c r="D6" s="1">
-        <v>-79.3865409</v>
+      <c r="C6" s="15">
+        <v>43.648522700000001</v>
+      </c>
+      <c r="D6" s="15">
+        <v>-79.377772800000002</v>
       </c>
       <c r="E6" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
       </c>
       <c r="G6" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I6" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J6" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K6" s="2">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="L6" s="2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
@@ -1299,40 +1327,40 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1">
-        <v>43.659980300000001</v>
-      </c>
-      <c r="D7" s="1">
-        <v>-79.390368600000002</v>
+      <c r="C7" s="15">
+        <v>43.650801600000001</v>
+      </c>
+      <c r="D7" s="15">
+        <v>-79.3865409</v>
       </c>
       <c r="E7" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G7" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H7" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J7" s="2">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K7" s="2">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L7" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
@@ -1340,40 +1368,40 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1">
-        <v>43.647791699999999</v>
-      </c>
-      <c r="D8" s="1">
-        <v>-79.384871099999899</v>
+      <c r="C8" s="15">
+        <v>43.659980300000001</v>
+      </c>
+      <c r="D8" s="15">
+        <v>-79.390368600000002</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
       </c>
       <c r="F8" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G8" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H8" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8" s="2">
         <v>2</v>
       </c>
       <c r="J8" s="2">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K8" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L8" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
@@ -1381,37 +1409,37 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="1">
-        <v>43.668641399999998</v>
-      </c>
-      <c r="D9" s="1">
-        <v>-79.398018829999998</v>
+      <c r="C9" s="15">
+        <v>43.647791699999999</v>
+      </c>
+      <c r="D9" s="15">
+        <v>-79.384871099999998</v>
       </c>
       <c r="E9" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="G9" s="2">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H9" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I9" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J9" s="2">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="K9" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L9" s="2">
         <v>6</v>
@@ -1422,40 +1450,40 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="1">
-        <v>43.6548199</v>
-      </c>
-      <c r="D10" s="1">
-        <v>-79.388273599999906</v>
+      <c r="C10" s="15">
+        <v>43.668641399999998</v>
+      </c>
+      <c r="D10" s="15">
+        <v>-79.398018826640495</v>
       </c>
       <c r="E10" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="G10" s="2">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H10" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I10" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J10" s="2">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="K10" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L10" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M10" s="2">
         <v>0</v>
@@ -1463,657 +1491,657 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="16">
+        <v>43.6548199</v>
+      </c>
+      <c r="D11" s="16">
+        <v>-79.388273600000005</v>
+      </c>
+      <c r="E11" s="11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="11">
+        <v>3</v>
+      </c>
+      <c r="G11" s="11">
+        <v>26</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="11">
+        <v>2</v>
+      </c>
+      <c r="J11" s="11">
+        <v>46</v>
+      </c>
+      <c r="K11" s="11">
+        <v>16</v>
+      </c>
+      <c r="L11" s="11">
+        <v>4</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="10">
-        <v>45.152272150000002</v>
-      </c>
-      <c r="D11" s="10">
-        <v>-75.650269260000002</v>
-      </c>
-      <c r="E11" s="11">
-        <v>2</v>
-      </c>
-      <c r="F11" s="11">
-        <v>1</v>
-      </c>
-      <c r="G11" s="11">
+      <c r="C12" s="17">
+        <v>45.409229850000003</v>
+      </c>
+      <c r="D12" s="17">
+        <v>-75.722323334804599</v>
+      </c>
+      <c r="E12" s="14">
+        <v>6</v>
+      </c>
+      <c r="F12" s="14">
+        <v>1</v>
+      </c>
+      <c r="G12" s="14">
         <v>16</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H12" s="14">
+        <v>7</v>
+      </c>
+      <c r="I12" s="14">
         <v>6</v>
       </c>
-      <c r="I11" s="11">
+      <c r="J12" s="14">
+        <v>26</v>
+      </c>
+      <c r="K12" s="14">
+        <v>32</v>
+      </c>
+      <c r="L12" s="14">
+        <v>7</v>
+      </c>
+      <c r="M12" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="17">
+        <v>45.431026250000002</v>
+      </c>
+      <c r="D13" s="17">
+        <v>-75.608415591760505</v>
+      </c>
+      <c r="E13" s="14">
+        <v>1</v>
+      </c>
+      <c r="F13" s="14">
+        <v>1</v>
+      </c>
+      <c r="G13" s="14">
+        <v>27</v>
+      </c>
+      <c r="H13" s="14">
+        <v>1</v>
+      </c>
+      <c r="I13" s="14">
+        <v>4</v>
+      </c>
+      <c r="J13" s="14">
+        <v>20</v>
+      </c>
+      <c r="K13" s="14">
+        <v>36</v>
+      </c>
+      <c r="L13" s="14">
+        <v>10</v>
+      </c>
+      <c r="M13" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="17">
+        <v>45.422744950000002</v>
+      </c>
+      <c r="D14" s="17">
+        <v>-75.626372478720796</v>
+      </c>
+      <c r="E14" s="14">
+        <v>2</v>
+      </c>
+      <c r="F14" s="14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="14">
+        <v>9</v>
+      </c>
+      <c r="H14" s="14">
+        <v>2</v>
+      </c>
+      <c r="I14" s="14">
+        <v>2</v>
+      </c>
+      <c r="J14" s="14">
+        <v>33</v>
+      </c>
+      <c r="K14" s="14">
+        <v>40</v>
+      </c>
+      <c r="L14" s="14">
+        <v>12</v>
+      </c>
+      <c r="M14" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="11">
-        <v>12</v>
-      </c>
-      <c r="K11" s="11">
+      <c r="B15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="17">
+        <v>45.413592350000002</v>
+      </c>
+      <c r="D15" s="17">
+        <v>-75.713726352682102</v>
+      </c>
+      <c r="E15" s="14">
+        <v>15</v>
+      </c>
+      <c r="F15" s="14">
+        <v>1</v>
+      </c>
+      <c r="G15" s="14">
+        <v>22</v>
+      </c>
+      <c r="H15" s="14">
+        <v>1</v>
+      </c>
+      <c r="I15" s="14">
+        <v>13</v>
+      </c>
+      <c r="J15" s="14">
+        <v>19</v>
+      </c>
+      <c r="K15" s="14">
+        <v>18</v>
+      </c>
+      <c r="L15" s="14">
+        <v>10</v>
+      </c>
+      <c r="M15" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="17">
+        <v>43.660661699999999</v>
+      </c>
+      <c r="D16" s="17">
+        <v>-79.382795200000004</v>
+      </c>
+      <c r="E16" s="14">
+        <v>4</v>
+      </c>
+      <c r="F16" s="14">
+        <v>2</v>
+      </c>
+      <c r="G16" s="14">
+        <v>24</v>
+      </c>
+      <c r="H16" s="14">
+        <v>3</v>
+      </c>
+      <c r="I16" s="14">
+        <v>4</v>
+      </c>
+      <c r="J16" s="14">
+        <v>28</v>
+      </c>
+      <c r="K16" s="14">
+        <v>28.999999999999901</v>
+      </c>
+      <c r="L16" s="14">
+        <v>7</v>
+      </c>
+      <c r="M16" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="11">
+      <c r="B17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="17">
+        <v>43.656536699999997</v>
+      </c>
+      <c r="D17" s="17">
+        <v>-79.381022299999998</v>
+      </c>
+      <c r="E17" s="14">
+        <v>8</v>
+      </c>
+      <c r="F17" s="14">
+        <v>3</v>
+      </c>
+      <c r="G17" s="14">
+        <v>31</v>
+      </c>
+      <c r="H17" s="14">
+        <v>3</v>
+      </c>
+      <c r="I17" s="14">
         <v>5</v>
       </c>
-      <c r="M11" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="10" t="s">
+      <c r="J17" s="14">
+        <v>22</v>
+      </c>
+      <c r="K17" s="14">
+        <v>25</v>
+      </c>
+      <c r="L17" s="14">
+        <v>3</v>
+      </c>
+      <c r="M17" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="10">
-        <v>43.6529083</v>
-      </c>
-      <c r="D12" s="10">
-        <v>-79.379457500000001</v>
-      </c>
-      <c r="E12" s="11">
-        <v>5</v>
-      </c>
-      <c r="F12" s="11">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11">
-        <v>19</v>
-      </c>
-      <c r="H12" s="11">
+      <c r="C18" s="17">
+        <v>43.665402999999998</v>
+      </c>
+      <c r="D18" s="17">
+        <v>-79.383600099999995</v>
+      </c>
+      <c r="E18" s="14">
+        <v>4</v>
+      </c>
+      <c r="F18" s="14">
+        <v>1</v>
+      </c>
+      <c r="G18" s="14">
+        <v>25</v>
+      </c>
+      <c r="H18" s="14">
+        <v>6</v>
+      </c>
+      <c r="I18" s="14">
         <v>3</v>
       </c>
-      <c r="I12" s="11">
-        <v>2</v>
-      </c>
-      <c r="J12" s="11">
+      <c r="J18" s="14">
         <v>16</v>
       </c>
-      <c r="K12" s="11">
-        <v>52</v>
-      </c>
-      <c r="L12" s="11">
-        <v>4</v>
-      </c>
-      <c r="M12" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="K18" s="14">
+        <v>38</v>
+      </c>
+      <c r="L18" s="14">
+        <v>7</v>
+      </c>
+      <c r="M18" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="16">
+        <v>45.412335300000002</v>
+      </c>
+      <c r="D19" s="16">
+        <v>-75.664424862921507</v>
+      </c>
+      <c r="E19" s="11">
+        <v>2</v>
+      </c>
+      <c r="F19" s="11">
+        <v>11</v>
+      </c>
+      <c r="G19" s="11">
+        <v>15</v>
+      </c>
+      <c r="H19" s="11">
+        <v>3</v>
+      </c>
+      <c r="I19" s="11">
+        <v>14</v>
+      </c>
+      <c r="J19" s="11">
+        <v>16</v>
+      </c>
+      <c r="K19" s="11">
+        <v>15</v>
+      </c>
+      <c r="L19" s="11">
         <v>25</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="1">
-        <v>45.409229850000003</v>
-      </c>
-      <c r="D13" s="1">
-        <v>-75.722323329999995</v>
-      </c>
-      <c r="E13" s="2">
-        <v>6</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2">
-        <v>16</v>
-      </c>
-      <c r="H13" s="2">
-        <v>7</v>
-      </c>
-      <c r="I13" s="2">
-        <v>6</v>
-      </c>
-      <c r="J13" s="2">
-        <v>26</v>
-      </c>
-      <c r="K13" s="2">
-        <v>32</v>
-      </c>
-      <c r="L13" s="2">
-        <v>7</v>
-      </c>
-      <c r="M13" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1">
-        <v>45.431026250000002</v>
-      </c>
-      <c r="D14" s="1">
-        <v>-75.608415590000007</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2">
-        <v>27</v>
-      </c>
-      <c r="H14" s="2">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2">
-        <v>4</v>
-      </c>
-      <c r="J14" s="2">
-        <v>20</v>
-      </c>
-      <c r="K14" s="2">
-        <v>36</v>
-      </c>
-      <c r="L14" s="2">
-        <v>10</v>
-      </c>
-      <c r="M14" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="1">
-        <v>45.422744950000002</v>
-      </c>
-      <c r="D15" s="1">
-        <v>-75.626372480000001</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>9</v>
-      </c>
-      <c r="H15" s="2">
-        <v>2</v>
-      </c>
-      <c r="I15" s="2">
-        <v>2</v>
-      </c>
-      <c r="J15" s="2">
-        <v>33</v>
-      </c>
-      <c r="K15" s="2">
-        <v>40</v>
-      </c>
-      <c r="L15" s="2">
-        <v>12</v>
-      </c>
-      <c r="M15" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="1">
-        <v>45.413592350000002</v>
-      </c>
-      <c r="D16" s="1">
-        <v>-75.713726350000002</v>
-      </c>
-      <c r="E16" s="2">
-        <v>15</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2">
-        <v>22</v>
-      </c>
-      <c r="H16" s="2">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2">
-        <v>13</v>
-      </c>
-      <c r="J16" s="2">
-        <v>19</v>
-      </c>
-      <c r="K16" s="2">
-        <v>18</v>
-      </c>
-      <c r="L16" s="2">
-        <v>10</v>
-      </c>
-      <c r="M16" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="1">
-        <v>43.660661699999999</v>
-      </c>
-      <c r="D17" s="1">
-        <v>-79.382795200000004</v>
-      </c>
-      <c r="E17" s="2">
-        <v>4</v>
-      </c>
-      <c r="F17" s="2">
-        <v>2</v>
-      </c>
-      <c r="G17" s="2">
-        <v>24</v>
-      </c>
-      <c r="H17" s="2">
-        <v>3</v>
-      </c>
-      <c r="I17" s="2">
-        <v>4</v>
-      </c>
-      <c r="J17" s="2">
-        <v>28</v>
-      </c>
-      <c r="K17" s="2">
-        <v>29</v>
-      </c>
-      <c r="L17" s="2">
-        <v>7</v>
-      </c>
-      <c r="M17" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="1">
-        <v>43.656536699999997</v>
-      </c>
-      <c r="D18" s="1">
-        <v>-79.381022299999998</v>
-      </c>
-      <c r="E18" s="2">
-        <v>8</v>
-      </c>
-      <c r="F18" s="2">
-        <v>3</v>
-      </c>
-      <c r="G18" s="2">
-        <v>32</v>
-      </c>
-      <c r="H18" s="2">
-        <v>3</v>
-      </c>
-      <c r="I18" s="2">
-        <v>5</v>
-      </c>
-      <c r="J18" s="2">
-        <v>22</v>
-      </c>
-      <c r="K18" s="2">
-        <v>25</v>
-      </c>
-      <c r="L18" s="2">
-        <v>3</v>
-      </c>
-      <c r="M18" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="1">
-        <v>43.665402999999998</v>
-      </c>
-      <c r="D19" s="1">
-        <v>-79.383600099999995</v>
-      </c>
-      <c r="E19" s="2">
-        <v>4</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
-      <c r="G19" s="2">
-        <v>25</v>
-      </c>
-      <c r="H19" s="2">
-        <v>6</v>
-      </c>
-      <c r="I19" s="2">
-        <v>3</v>
-      </c>
-      <c r="J19" s="2">
-        <v>16</v>
-      </c>
-      <c r="K19" s="2">
-        <v>38</v>
-      </c>
-      <c r="L19" s="2">
-        <v>7</v>
-      </c>
-      <c r="M19" s="2">
+      <c r="M19" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="10">
-        <v>45.420529799999997</v>
-      </c>
-      <c r="D20" s="10">
-        <v>-75.682280489999997</v>
+      <c r="C20" s="16">
+        <v>45.41628455</v>
+      </c>
+      <c r="D20" s="16">
+        <v>-75.6705328155996</v>
       </c>
       <c r="E20" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F20" s="11">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="G20" s="11">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H20" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I20" s="11">
+        <v>13</v>
+      </c>
+      <c r="J20" s="11">
+        <v>16</v>
+      </c>
+      <c r="K20" s="11">
+        <v>12</v>
+      </c>
+      <c r="L20" s="11">
+        <v>19</v>
+      </c>
+      <c r="M20" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="16">
+        <v>45.416932799999998</v>
+      </c>
+      <c r="D21" s="16">
+        <v>-75.653347895684107</v>
+      </c>
+      <c r="E21" s="11">
+        <v>2</v>
+      </c>
+      <c r="F21" s="11">
+        <v>1</v>
+      </c>
+      <c r="G21" s="11">
+        <v>20</v>
+      </c>
+      <c r="H21" s="11">
+        <v>0</v>
+      </c>
+      <c r="I21" s="11">
         <v>5</v>
       </c>
-      <c r="J20" s="11">
-        <v>10</v>
-      </c>
-      <c r="K20" s="11">
-        <v>6</v>
-      </c>
-      <c r="L20" s="11">
-        <v>3</v>
-      </c>
-      <c r="M20" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="1">
-        <v>45.412357200000002</v>
-      </c>
-      <c r="D21" s="1">
-        <v>-75.664319730000003</v>
-      </c>
-      <c r="E21" s="2">
-        <v>2</v>
-      </c>
-      <c r="F21" s="2">
-        <v>11</v>
-      </c>
-      <c r="G21" s="2">
-        <v>15</v>
-      </c>
-      <c r="H21" s="2">
-        <v>3</v>
-      </c>
-      <c r="I21" s="2">
-        <v>14</v>
-      </c>
-      <c r="J21" s="2">
+      <c r="J21" s="11">
         <v>16</v>
       </c>
-      <c r="K21" s="2">
-        <v>15</v>
-      </c>
-      <c r="L21" s="2">
+      <c r="K21" s="11">
         <v>25</v>
       </c>
-      <c r="M21" s="2">
-        <v>4</v>
+      <c r="L21" s="11">
+        <v>30</v>
+      </c>
+      <c r="M21" s="11">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="1">
-        <v>45.416366250000003</v>
-      </c>
-      <c r="D22" s="1">
-        <v>-75.670538519999994</v>
+        <v>16</v>
+      </c>
+      <c r="C22" s="15">
+        <v>43.667234899999997</v>
+      </c>
+      <c r="D22" s="15">
+        <v>-79.403686300000004</v>
       </c>
       <c r="E22" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G22" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H22" s="2">
         <v>3</v>
       </c>
       <c r="I22" s="2">
+        <v>3</v>
+      </c>
+      <c r="J22" s="2">
+        <v>24</v>
+      </c>
+      <c r="K22" s="2">
         <v>13</v>
       </c>
-      <c r="J22" s="2">
-        <v>17</v>
-      </c>
-      <c r="K22" s="2">
-        <v>12</v>
-      </c>
       <c r="L22" s="2">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="M22" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="15">
+        <v>43.644689999999997</v>
+      </c>
+      <c r="D23" s="15">
+        <v>-79.379965688109493</v>
+      </c>
+      <c r="E23" s="2">
+        <v>4</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>26</v>
+      </c>
+      <c r="H23" s="2">
+        <v>4</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2">
+        <v>19</v>
+      </c>
+      <c r="K23" s="2">
         <v>13</v>
       </c>
-      <c r="C23" s="1">
-        <v>45.416932799999998</v>
-      </c>
-      <c r="D23" s="1">
-        <v>-75.6533479</v>
-      </c>
-      <c r="E23" s="2">
-        <v>2</v>
-      </c>
-      <c r="F23" s="2">
-        <v>1</v>
-      </c>
-      <c r="G23" s="2">
-        <v>20</v>
-      </c>
-      <c r="H23" s="2">
+      <c r="L23" s="2">
+        <v>32</v>
+      </c>
+      <c r="M23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="17">
+        <v>43.6529083</v>
+      </c>
+      <c r="D24" s="17">
+        <v>-79.379457500000001</v>
+      </c>
+      <c r="E24" s="14">
+        <v>5</v>
+      </c>
+      <c r="F24" s="14">
         <v>0</v>
       </c>
-      <c r="I23" s="2">
-        <v>5</v>
-      </c>
-      <c r="J23" s="2">
+      <c r="G24" s="14">
+        <v>19</v>
+      </c>
+      <c r="H24" s="14">
+        <v>3</v>
+      </c>
+      <c r="I24" s="14">
+        <v>2</v>
+      </c>
+      <c r="J24" s="14">
         <v>16</v>
       </c>
-      <c r="K23" s="2">
-        <v>25</v>
-      </c>
-      <c r="L23" s="2">
-        <v>30</v>
-      </c>
-      <c r="M23" s="2">
+      <c r="K24" s="14">
+        <v>52</v>
+      </c>
+      <c r="L24" s="14">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="1">
-        <v>43.667234899999997</v>
-      </c>
-      <c r="D24" s="1">
-        <v>-79.403686300000004</v>
-      </c>
-      <c r="E24" s="2">
-        <v>2</v>
-      </c>
-      <c r="F24" s="2">
-        <v>7</v>
-      </c>
-      <c r="G24" s="2">
-        <v>14</v>
-      </c>
-      <c r="H24" s="2">
+      <c r="M24" s="14">
         <v>3</v>
-      </c>
-      <c r="I24" s="2">
-        <v>3</v>
-      </c>
-      <c r="J24" s="2">
-        <v>24</v>
-      </c>
-      <c r="K24" s="2">
-        <v>13</v>
-      </c>
-      <c r="L24" s="2">
-        <v>34</v>
-      </c>
-      <c r="M24" s="2">
-        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="1">
-        <v>43.644689999999997</v>
-      </c>
-      <c r="D25" s="1">
-        <v>-79.379965690000006</v>
+        <v>13</v>
+      </c>
+      <c r="C25" s="15">
+        <v>45.420605350000002</v>
+      </c>
+      <c r="D25" s="15">
+        <v>-75.638188374852405</v>
       </c>
       <c r="E25" s="2">
+        <v>2</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2">
+        <v>19</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2">
         <v>4</v>
       </c>
-      <c r="F25" s="2">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2">
-        <v>26</v>
-      </c>
-      <c r="H25" s="2">
-        <v>4</v>
-      </c>
-      <c r="I25" s="2">
-        <v>1</v>
-      </c>
-      <c r="J25" s="2">
-        <v>19</v>
-      </c>
       <c r="K25" s="2">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="L25" s="2">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="M25" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="10" t="s">
+      <c r="A26" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="10">
-        <v>45.420605350000002</v>
-      </c>
-      <c r="D26" s="10">
-        <v>-75.638188369999995</v>
-      </c>
-      <c r="E26" s="11">
-        <v>2</v>
-      </c>
-      <c r="F26" s="11">
-        <v>1</v>
-      </c>
-      <c r="G26" s="11">
-        <v>19</v>
-      </c>
-      <c r="H26" s="11">
-        <v>0</v>
-      </c>
-      <c r="I26" s="11">
-        <v>1</v>
-      </c>
-      <c r="J26" s="11">
+      <c r="C26" s="17">
+        <v>45.420677249999997</v>
+      </c>
+      <c r="D26" s="17">
+        <v>-75.682466443938395</v>
+      </c>
+      <c r="E26" s="14">
+        <v>1</v>
+      </c>
+      <c r="F26" s="14">
+        <v>68</v>
+      </c>
+      <c r="G26" s="14">
+        <v>9</v>
+      </c>
+      <c r="H26" s="14">
+        <v>3</v>
+      </c>
+      <c r="I26" s="14">
+        <v>5</v>
+      </c>
+      <c r="J26" s="14">
+        <v>7</v>
+      </c>
+      <c r="K26" s="14">
         <v>4</v>
       </c>
-      <c r="K26" s="11">
-        <v>73</v>
-      </c>
-      <c r="L26" s="11">
-        <v>1</v>
-      </c>
-      <c r="M26" s="11">
+      <c r="L26" s="14">
+        <v>3</v>
+      </c>
+      <c r="M26" s="14">
         <v>5</v>
       </c>
     </row>
@@ -2124,11 +2152,11 @@
       <c r="B27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="18">
         <v>43.667096999999998</v>
       </c>
-      <c r="D27" s="4">
-        <v>-79.393606499999905</v>
+      <c r="D27" s="18">
+        <v>-79.393606500000004</v>
       </c>
       <c r="E27" s="5">
         <v>24</v>
@@ -2143,7 +2171,7 @@
         <v>3</v>
       </c>
       <c r="I27" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J27" s="5">
         <v>22</v>
@@ -2160,5 +2188,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Macumber_Coursera_Capstone_Table02.xlsx
+++ b/Macumber_Coursera_Capstone_Table02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I dunno---Andrew\FactoryFloor\Repositories\Coursera_Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CC54B4-D26E-4C11-8B6F-91BE4C31284B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF209B0-6F04-4167-8E84-04095D6BA079}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
   <si>
     <t>City</t>
   </si>
@@ -1060,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,7 +1187,7 @@
         <v>3</v>
       </c>
       <c r="I3" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" s="2">
         <v>46</v>
@@ -1339,7 +1339,7 @@
         <v>-79.3865409</v>
       </c>
       <c r="E7" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
@@ -1354,7 +1354,7 @@
         <v>9</v>
       </c>
       <c r="J7" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K7" s="2">
         <v>9</v>
@@ -1395,7 +1395,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K8" s="2">
         <v>14</v>
@@ -1462,7 +1462,7 @@
         <v>-79.398018826640495</v>
       </c>
       <c r="E10" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" s="2">
         <v>21</v>
@@ -1480,7 +1480,7 @@
         <v>33</v>
       </c>
       <c r="K10" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L10" s="2">
         <v>6</v>
@@ -1521,7 +1521,7 @@
         <v>46</v>
       </c>
       <c r="K11" s="11">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L11" s="11">
         <v>4</v>
@@ -1532,40 +1532,40 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="17">
-        <v>45.409229850000003</v>
+        <v>45.412335300000002</v>
       </c>
       <c r="D12" s="17">
-        <v>-75.722323334804599</v>
+        <v>-75.664424862921507</v>
       </c>
       <c r="E12" s="14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F12" s="14">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G12" s="14">
+        <v>15</v>
+      </c>
+      <c r="H12" s="14">
+        <v>3</v>
+      </c>
+      <c r="I12" s="14">
+        <v>14</v>
+      </c>
+      <c r="J12" s="14">
         <v>16</v>
       </c>
-      <c r="H12" s="14">
-        <v>7</v>
-      </c>
-      <c r="I12" s="14">
-        <v>6</v>
-      </c>
-      <c r="J12" s="14">
-        <v>26</v>
-      </c>
       <c r="K12" s="14">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="L12" s="14">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="M12" s="14">
         <v>1</v>
@@ -1573,40 +1573,40 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="17">
-        <v>45.431026250000002</v>
+        <v>45.41628455</v>
       </c>
       <c r="D13" s="17">
-        <v>-75.608415591760505</v>
+        <v>-75.6705328155996</v>
       </c>
       <c r="E13" s="14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F13" s="14">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G13" s="14">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H13" s="14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I13" s="14">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J13" s="14">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K13" s="14">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="L13" s="14">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="M13" s="14">
         <v>1</v>
@@ -1614,40 +1614,40 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="17">
-        <v>45.422744950000002</v>
+        <v>45.413592350000002</v>
       </c>
       <c r="D14" s="17">
-        <v>-75.626372478720796</v>
+        <v>-75.713726352682102</v>
       </c>
       <c r="E14" s="14">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F14" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="14">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="H14" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" s="14">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J14" s="14">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="K14" s="14">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="L14" s="14">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M14" s="14">
         <v>1</v>
@@ -1655,40 +1655,40 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="17">
-        <v>45.413592350000002</v>
+        <v>45.416932799999998</v>
       </c>
       <c r="D15" s="17">
-        <v>-75.713726352682102</v>
+        <v>-75.653347895684107</v>
       </c>
       <c r="E15" s="14">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F15" s="14">
         <v>1</v>
       </c>
       <c r="G15" s="14">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H15" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="14">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J15" s="14">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K15" s="14">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L15" s="14">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="M15" s="14">
         <v>1</v>
@@ -1696,40 +1696,40 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="17">
-        <v>43.660661699999999</v>
+        <v>43.667234899999997</v>
       </c>
       <c r="D16" s="17">
-        <v>-79.382795200000004</v>
+        <v>-79.403686300000004</v>
       </c>
       <c r="E16" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F16" s="14">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G16" s="14">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H16" s="14">
         <v>3</v>
       </c>
       <c r="I16" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J16" s="14">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K16" s="14">
-        <v>28.999999999999901</v>
+        <v>13</v>
       </c>
       <c r="L16" s="14">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="M16" s="14">
         <v>1</v>
@@ -1737,122 +1737,122 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="17">
-        <v>43.656536699999997</v>
+        <v>43.644689999999997</v>
       </c>
       <c r="D17" s="17">
-        <v>-79.381022299999998</v>
+        <v>-79.379965688109493</v>
       </c>
       <c r="E17" s="14">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F17" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G17" s="14">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H17" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I17" s="14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J17" s="14">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K17" s="14">
+        <v>13</v>
+      </c>
+      <c r="L17" s="14">
+        <v>33</v>
+      </c>
+      <c r="M17" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="14">
-        <v>3</v>
-      </c>
-      <c r="M17" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="16">
+        <v>45.409229850000003</v>
+      </c>
+      <c r="D18" s="16">
+        <v>-75.722323334804599</v>
+      </c>
+      <c r="E18" s="11">
+        <v>6</v>
+      </c>
+      <c r="F18" s="11">
+        <v>1</v>
+      </c>
+      <c r="G18" s="11">
         <v>16</v>
       </c>
-      <c r="C18" s="17">
-        <v>43.665402999999998</v>
-      </c>
-      <c r="D18" s="17">
-        <v>-79.383600099999995</v>
-      </c>
-      <c r="E18" s="14">
-        <v>4</v>
-      </c>
-      <c r="F18" s="14">
-        <v>1</v>
-      </c>
-      <c r="G18" s="14">
-        <v>25</v>
-      </c>
-      <c r="H18" s="14">
+      <c r="H18" s="11">
+        <v>7</v>
+      </c>
+      <c r="I18" s="11">
         <v>6</v>
       </c>
-      <c r="I18" s="14">
-        <v>3</v>
-      </c>
-      <c r="J18" s="14">
-        <v>16</v>
-      </c>
-      <c r="K18" s="14">
-        <v>38</v>
-      </c>
-      <c r="L18" s="14">
+      <c r="J18" s="11">
+        <v>26</v>
+      </c>
+      <c r="K18" s="11">
+        <v>32</v>
+      </c>
+      <c r="L18" s="11">
         <v>7</v>
       </c>
-      <c r="M18" s="14">
-        <v>1</v>
+      <c r="M18" s="11">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="16">
-        <v>45.412335300000002</v>
+        <v>45.431026250000002</v>
       </c>
       <c r="D19" s="16">
-        <v>-75.664424862921507</v>
+        <v>-75.608415591760505</v>
       </c>
       <c r="E19" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="11">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G19" s="11">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H19" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19" s="11">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J19" s="11">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K19" s="11">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="L19" s="11">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M19" s="11">
         <v>2</v>
@@ -1860,40 +1860,40 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="16">
-        <v>45.41628455</v>
+        <v>45.422744950000002</v>
       </c>
       <c r="D20" s="16">
-        <v>-75.6705328155996</v>
+        <v>-75.626372478720796</v>
       </c>
       <c r="E20" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F20" s="11">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G20" s="11">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="H20" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I20" s="11">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J20" s="11">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="K20" s="11">
+        <v>40</v>
+      </c>
+      <c r="L20" s="11">
         <v>12</v>
-      </c>
-      <c r="L20" s="11">
-        <v>19</v>
       </c>
       <c r="M20" s="11">
         <v>2</v>
@@ -1901,40 +1901,40 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C21" s="16">
-        <v>45.416932799999998</v>
+        <v>43.660661699999999</v>
       </c>
       <c r="D21" s="16">
-        <v>-75.653347895684107</v>
+        <v>-79.382795200000004</v>
       </c>
       <c r="E21" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F21" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" s="11">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H21" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I21" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J21" s="11">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="K21" s="11">
-        <v>25</v>
+        <v>28.999999999999901</v>
       </c>
       <c r="L21" s="11">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="M21" s="11">
         <v>2</v>
@@ -1942,40 +1942,40 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="15">
-        <v>43.667234899999997</v>
+        <v>43.656536699999997</v>
       </c>
       <c r="D22" s="15">
-        <v>-79.403686300000004</v>
+        <v>-79.381022299999998</v>
       </c>
       <c r="E22" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F22" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G22" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H22" s="2">
+        <v>2</v>
+      </c>
+      <c r="I22" s="2">
+        <v>5</v>
+      </c>
+      <c r="J22" s="2">
+        <v>22</v>
+      </c>
+      <c r="K22" s="2">
+        <v>25</v>
+      </c>
+      <c r="L22" s="2">
         <v>3</v>
-      </c>
-      <c r="I22" s="2">
-        <v>3</v>
-      </c>
-      <c r="J22" s="2">
-        <v>24</v>
-      </c>
-      <c r="K22" s="2">
-        <v>13</v>
-      </c>
-      <c r="L22" s="2">
-        <v>34</v>
       </c>
       <c r="M22" s="2">
         <v>2</v>
@@ -1983,40 +1983,40 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="15">
-        <v>43.644689999999997</v>
+        <v>43.665402999999998</v>
       </c>
       <c r="D23" s="15">
-        <v>-79.379965688109493</v>
+        <v>-79.383600099999995</v>
       </c>
       <c r="E23" s="2">
         <v>4</v>
       </c>
       <c r="F23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H23" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I23" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" s="2">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K23" s="2">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="L23" s="2">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="M23" s="2">
         <v>2</v>
@@ -2171,7 +2171,7 @@
         <v>3</v>
       </c>
       <c r="I27" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J27" s="5">
         <v>22</v>
